--- a/data.xlsx
+++ b/data.xlsx
@@ -538,49 +538,49 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G2" t="n">
+        <v>47</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.5</v>
       </c>
-      <c r="E2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G2" t="n">
-        <v>48</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
       <c r="I2" t="n">
-        <v>0.1339</v>
+        <v>0.1039</v>
       </c>
       <c r="J2" t="n">
-        <v>0.867</v>
+        <v>0.896</v>
       </c>
       <c r="K2" t="n">
-        <v>0.02122</v>
+        <v>0.01604</v>
       </c>
       <c r="L2" t="n">
-        <v>0.22806</v>
+        <v>0.22927</v>
       </c>
       <c r="M2" t="n">
-        <v>1.94e-06</v>
+        <v>1.87e-06</v>
       </c>
       <c r="N2" t="n">
-        <v>5.9e-05</v>
+        <v>0.3</v>
       </c>
       <c r="O2" t="n">
-        <v>0.35</v>
+        <v>55</v>
       </c>
       <c r="P2" t="n">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.910633184</v>
+        <v>1</v>
       </c>
       <c r="R2" t="n">
-        <v>0.8581899404525757</v>
+        <v>1.809750199317932</v>
       </c>
     </row>
     <row r="3">
@@ -590,55 +590,55 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E3" t="n">
+        <v>47</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.1339</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.867</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.02122</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.22806</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.94e-06</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.00059</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="N3" t="n">
+        <v>60</v>
+      </c>
+      <c r="O3" t="n">
         <v>49</v>
       </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="P3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="n">
         <v>0.6</v>
       </c>
-      <c r="E3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="G3" t="n">
-        <v>48</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.1679</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.832</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.02784</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.22652</v>
-      </c>
-      <c r="M3" t="n">
-        <v>2.02e-06</v>
-      </c>
-      <c r="N3" t="n">
-        <v>5.947e-05</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="P3" t="n">
-        <v>20</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.910633184</v>
-      </c>
       <c r="R3" t="n">
-        <v>0.8501400947570801</v>
+        <v>1.932374477386475</v>
       </c>
     </row>
     <row r="4">
@@ -648,55 +648,55 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>47</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.1679</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.832</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.02784</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.22652</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2.02e-06</v>
+      </c>
+      <c r="K4" t="n">
+        <v>5.947e-05</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="M4" t="n">
+        <v>65</v>
+      </c>
+      <c r="N4" t="n">
         <v>49</v>
       </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="O4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" t="n">
         <v>0.8</v>
       </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="G4" t="n">
-        <v>48</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.2084</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.792</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.03626</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.22456</v>
-      </c>
-      <c r="M4" t="n">
-        <v>2.12e-06</v>
-      </c>
-      <c r="N4" t="n">
-        <v>5.999e-05</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="P4" t="n">
-        <v>25</v>
-      </c>
       <c r="Q4" t="n">
-        <v>0.904271288</v>
+        <v>1</v>
       </c>
       <c r="R4" t="n">
-        <v>0.8434710502624512</v>
+        <v>-0.1772931218147278</v>
       </c>
     </row>
     <row r="5">
@@ -706,55 +706,55 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C5" t="n">
+        <v>47</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.2084</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.792</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.03626</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.22456</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.12e-06</v>
+      </c>
+      <c r="J5" t="n">
+        <v>5.999e-05</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="L5" t="n">
+        <v>70</v>
+      </c>
+      <c r="M5" t="n">
         <v>49</v>
       </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" t="n">
-        <v>48</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.2544</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.746</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.04689</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.22208</v>
-      </c>
-      <c r="M5" t="n">
-        <v>2.25e-06</v>
-      </c>
       <c r="N5" t="n">
-        <v>6.066e-05</v>
+        <v>1</v>
       </c>
       <c r="O5" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P5" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.895775816</v>
+        <v>1</v>
       </c>
       <c r="R5" t="n">
-        <v>0.8367780447006226</v>
+        <v>-0.02471244335174561</v>
       </c>
     </row>
     <row r="6">
@@ -764,55 +764,55 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="D6" t="n">
+        <v>0.2544</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.746</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.04689</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.22208</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2.25e-06</v>
+      </c>
+      <c r="I6" t="n">
+        <v>6.066e-05</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.04689</v>
+      </c>
+      <c r="K6" t="n">
+        <v>75</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2.25e-05</v>
+      </c>
+      <c r="M6" t="n">
+        <v>6.066e-05</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O6" t="n">
+        <v>40</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Q6" t="n">
         <v>1.2</v>
       </c>
-      <c r="E6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="G6" t="n">
-        <v>48</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.3053</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.695</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.06024</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.21897</v>
-      </c>
-      <c r="M6" t="n">
-        <v>2.42e-06</v>
-      </c>
-      <c r="N6" t="n">
-        <v>6.151999999999999e-05</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="P6" t="n">
-        <v>35</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.889352978</v>
-      </c>
       <c r="R6" t="n">
-        <v>0.8300742506980896</v>
+        <v>2.816054821014404</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -568,19 +568,19 @@
         <v>1.87e-06</v>
       </c>
       <c r="N2" t="n">
+        <v>5.87e-05</v>
+      </c>
+      <c r="O2" t="n">
         <v>0.3</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>55</v>
       </c>
-      <c r="P2" t="n">
-        <v>49</v>
-      </c>
       <c r="Q2" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="R2" t="n">
-        <v>1.809750199317932</v>
+        <v>0.8053277730941772</v>
       </c>
     </row>
     <row r="3">
@@ -590,55 +590,55 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
         <v>0.5</v>
       </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
       <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.5</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>47</v>
       </c>
-      <c r="F3" t="n">
-        <v>1</v>
-      </c>
       <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.1339</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>0.867</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>0.02122</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>0.22806</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>1.94e-06</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>0.00059</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>0.35</v>
       </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
         <v>60</v>
       </c>
-      <c r="O3" t="n">
+      <c r="P3" t="n">
         <v>49</v>
       </c>
-      <c r="P3" t="n">
-        <v>1</v>
-      </c>
       <c r="Q3" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="R3" t="n">
-        <v>1.932374477386475</v>
+        <v>2.295415639877319</v>
       </c>
     </row>
     <row r="4">
@@ -648,55 +648,55 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
         <v>0.6</v>
       </c>
-      <c r="D4" t="n">
-        <v>47</v>
-      </c>
       <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
         <v>1.25</v>
       </c>
-      <c r="F4" t="n">
-        <v>0.1679</v>
-      </c>
       <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.832</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>0.02784</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>0.22652</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>2.02e-06</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>5.947e-05</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
+        <v>2.02e-05</v>
+      </c>
+      <c r="N4" t="n">
+        <v>5.947e-05</v>
+      </c>
+      <c r="O4" t="n">
         <v>0.4</v>
       </c>
-      <c r="M4" t="n">
-        <v>65</v>
-      </c>
-      <c r="N4" t="n">
-        <v>49</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1</v>
-      </c>
       <c r="P4" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q4" t="n">
         <v>0.8</v>
       </c>
-      <c r="Q4" t="n">
-        <v>1</v>
-      </c>
       <c r="R4" t="n">
-        <v>-0.1772931218147278</v>
+        <v>0.8941892385482788</v>
       </c>
     </row>
     <row r="5">
@@ -706,55 +706,55 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>49</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
         <v>0.8</v>
       </c>
-      <c r="C5" t="n">
-        <v>47</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
         <v>1.5</v>
       </c>
-      <c r="E5" t="n">
-        <v>0.2084</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.792</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.03626</v>
-      </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>0.22456</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>2.12e-06</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>5.999e-05</v>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
+        <v>0.22456</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2.12e-05</v>
+      </c>
+      <c r="N5" t="n">
+        <v>5.999e-05</v>
+      </c>
+      <c r="O5" t="n">
         <v>0.45</v>
       </c>
-      <c r="L5" t="n">
-        <v>70</v>
-      </c>
-      <c r="M5" t="n">
-        <v>49</v>
-      </c>
-      <c r="N5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1</v>
-      </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="Q5" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.02471244335174561</v>
+        <v>0.8710057735443115</v>
       </c>
     </row>
     <row r="6">
@@ -764,55 +764,55 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
         <v>1.75</v>
       </c>
-      <c r="D6" t="n">
-        <v>0.2544</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.746</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="I6" t="n">
+        <v>2.25e-06</v>
+      </c>
+      <c r="J6" t="n">
+        <v>6.066e-05</v>
+      </c>
+      <c r="K6" t="n">
         <v>0.04689</v>
       </c>
-      <c r="G6" t="n">
+      <c r="L6" t="n">
         <v>0.22208</v>
       </c>
-      <c r="H6" t="n">
-        <v>2.25e-06</v>
-      </c>
-      <c r="I6" t="n">
+      <c r="M6" t="n">
+        <v>2.25e-05</v>
+      </c>
+      <c r="N6" t="n">
         <v>6.066e-05</v>
       </c>
-      <c r="J6" t="n">
-        <v>0.04689</v>
-      </c>
-      <c r="K6" t="n">
-        <v>75</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2.25e-05</v>
-      </c>
-      <c r="M6" t="n">
-        <v>6.066e-05</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
         <v>0.5</v>
       </c>
-      <c r="O6" t="n">
+      <c r="P6" t="n">
         <v>40</v>
       </c>
-      <c r="P6" t="n">
+      <c r="Q6" t="n">
         <v>0.8</v>
       </c>
-      <c r="Q6" t="n">
-        <v>1.2</v>
-      </c>
       <c r="R6" t="n">
-        <v>2.816054821014404</v>
+        <v>0.8687582015991211</v>
       </c>
     </row>
   </sheetData>
